--- a/assets/disciplinas/LOQ4076.xlsx
+++ b/assets/disciplinas/LOQ4076.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Ao final do curso os estudantes deverão: - Compreender os aspectos mássicos, energéticos e entrópicos, envolvendo sistemas termodinâmicos abertos e fechados; - Dominar e ser capaz de fazer predições básicas de propriedades termodinâmicas, usando equações cúbicas de estado e relações termodinâmicas; - Desenvolver uma metodologia para poder solucionar os problemas de engenharia, nos aspectos termodinâmicos; Dominar o uso de tabelas de propriedades termodinâmicas;</t>
+    <t>8554681 - Pedro Felipe Arce Castillo</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>8554681 - Pedro Felipe Arce Castillo</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>A primeira Lei da Termodinâmica. Efeitos Térmicos. A segunda lei da Termodinâmica. Propriedades termodinâmicas dos fluidos. Termodinâmica de processos de escoamento. Produção de potencia a partir de calor. Refrigeração e liquefação</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,58 +91,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1  A primeira Lei da Termodinâmica
-     1.1- Energia interna
-     1.2- Estado termodinâmico e funções de estado
-     1.3- Entalpia
-     1.4- A regra das fases
-     1.5- O processo reversível
-     1.6- Processos a volume constante e a pressão constante
-     1.7- Capacidade calorífica
-2  Efeitos Térmicos 
-     2.1- Calores Latentes de Substâncias Puras.
-     2.2- Calor de Reação Padrão
-     2.3- Calor Padrão de Formação
-     2.4- Calor Padrão de Combustão
-     2.5- O processo reversível
-     2.6- A variação da entalpia com a Temperatura
-3- A segunda lei da Termodinâmica
-    3.1- Enunciados da lei
-    3.2- Máquinas térmicas
-    3.3- Escalas de temperaturas termodinâmicas
-    3.4- Entropia 
-    3.5- Variações da entropia de um gás ideal
-    3.6- A terceira lei da termodinâmica
-4- Produção de potencia a partir de calor
-   4.1- A planta de potencia a vapor (maquina a vapor)
-   4.2- Motores de combustão interna
-   4.3- O motor Otto
-   4.4- O motor Diesel
-   4.5- A planta de potencia com turbina a gás
-5- Refrigeração e liquefação
-    5.1- O refrigerador de Carnot
-    5.2- O ciclo com compresso a vapor
-    5.3- Comparação de ciclos de refrigeração
-    5.4- Refrigeração por absorção
-    5.5- A bomba a calor
-    6.6- Processos de liquefação
-6- Termodinâmica de soluções
-    6.1- Relações fundamentais entre propriedades
-    6.2- O potencial químico 
-    6.3- Fugacidade e coeficiente de fugacidade
-    6.4- A solução Ideal
-    6.5- Modelos para a energia de Gibbs
-    6.6- Propriedades de mistura
-    6.7- Efeitos térmicos em processos de mistura
-7- Equilíbrio de fases
-    7.1- Equilíbrio e estabilidade
-    7.2- Equilíbrio líquido-líquido
-    7.3- Equilíbrio líquido-líquido-vapor
-    7.4- Equilíbrio sólido-líquido
-    7.5- Equilíbrio sólido-vapor
-    7.6- Equilíbrio na adsorção de gases em sólidos</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -155,30 +100,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>2 provas escritas</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>serão avaliados os conteúdos discutidos em sala e constantes da ementa do curso. A média da disciplina será a média aritmética das duas provas.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>prova escrita com conteúdo de todo o semestre</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>1)Smith, J.M.; Van Ness, H.C.; Abott, M. M.  Introdução à Termodinâmica da Engenharia Química. 7ª ed.  ISBN 978-85-216-1553-8, LTC editora, 2007.
-2)Koretsky, M. D. Termodinâmica para Engenharia Química, 1ª ed.  ISBN 978-85-216-1530-9, LTC editora, 2007.
-3)Terron, L. R. Termodinâmica Química Aplicada. 1ª ed.  ISBN 978-85-204-2082-9, Editora Manole Ltda, 2009.
-4)Moran, M. J.; Shapiro, H. N. Princípios de Termodinâmica para Engenharia - 1ª ed.  ISBN 978-85-216-1689-4, LTC editora, 2009.
-5)Van Wilen, J. Sonntag, Richard. E. Fundamentos da Termodinâmica Clássica  6ª Edição  2004
-6)Sandler, S. I., Chemical and Engineering Thermodynamics, 3rd ed., John Wiley &amp; Sons, 1999</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -541,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -666,106 +603,98 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>38</v>
+      <c r="C23" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOQ4076.xlsx
+++ b/assets/disciplinas/LOQ4076.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,19 +70,22 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Ao final do curso os estudantes deverão: - Compreender os aspectos mássicos, energéticos e entrópicos, envolvendo sistemas termodinâmicos abertos e fechados; - Dominar e ser capaz de fazer predições básicas de propriedades termodinâmicas, usando equações cúbicas de estado e relações termodinâmicas; - Desenvolver uma metodologia para poder solucionar os problemas de engenharia, nos aspectos termodinâmicos; Dominar o uso de tabelas de propriedades termodinâmicas;</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>8554681 - Pedro Felipe Arce Castillo</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>A primeira Lei da Termodinâmica. Efeitos Térmicos. A segunda lei da Termodinâmica. Propriedades termodinâmicas dos fluidos. Termodinâmica de processos de escoamento. Produção de potencia a partir de calor. Refrigeração e liquefação</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -91,6 +94,58 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>1  A primeira Lei da Termodinâmica
+     1.1- Energia interna
+     1.2- Estado termodinâmico e funções de estado
+     1.3- Entalpia
+     1.4- A regra das fases
+     1.5- O processo reversível
+     1.6- Processos a volume constante e a pressão constante
+     1.7- Capacidade calorífica
+2  Efeitos Térmicos 
+     2.1- Calores Latentes de Substâncias Puras.
+     2.2- Calor de Reação Padrão
+     2.3- Calor Padrão de Formação
+     2.4- Calor Padrão de Combustão
+     2.5- O processo reversível
+     2.6- A variação da entalpia com a Temperatura
+3- A segunda lei da Termodinâmica
+    3.1- Enunciados da lei
+    3.2- Máquinas térmicas
+    3.3- Escalas de temperaturas termodinâmicas
+    3.4- Entropia 
+    3.5- Variações da entropia de um gás ideal
+    3.6- A terceira lei da termodinâmica
+4- Produção de potencia a partir de calor
+   4.1- A planta de potencia a vapor (maquina a vapor)
+   4.2- Motores de combustão interna
+   4.3- O motor Otto
+   4.4- O motor Diesel
+   4.5- A planta de potencia com turbina a gás
+5- Refrigeração e liquefação
+    5.1- O refrigerador de Carnot
+    5.2- O ciclo com compresso a vapor
+    5.3- Comparação de ciclos de refrigeração
+    5.4- Refrigeração por absorção
+    5.5- A bomba a calor
+    6.6- Processos de liquefação
+6- Termodinâmica de soluções
+    6.1- Relações fundamentais entre propriedades
+    6.2- O potencial químico 
+    6.3- Fugacidade e coeficiente de fugacidade
+    6.4- A solução Ideal
+    6.5- Modelos para a energia de Gibbs
+    6.6- Propriedades de mistura
+    6.7- Efeitos térmicos em processos de mistura
+7- Equilíbrio de fases
+    7.1- Equilíbrio e estabilidade
+    7.2- Equilíbrio líquido-líquido
+    7.3- Equilíbrio líquido-líquido-vapor
+    7.4- Equilíbrio sólido-líquido
+    7.5- Equilíbrio sólido-vapor
+    7.6- Equilíbrio na adsorção de gases em sólidos</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -100,22 +155,30 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>2 provas escritas</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>2 provas escritas</t>
+    <t>serão avaliados os conteúdos discutidos em sala e constantes da ementa do curso. A média da disciplina será a média aritmética das duas provas.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>serão avaliados os conteúdos discutidos em sala e constantes da ementa do curso. A média da disciplina será a média aritmética das duas provas.</t>
+    <t>prova escrita com conteúdo de todo o semestre</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>prova escrita com conteúdo de todo o semestre</t>
+    <t>1)Smith, J.M.; Van Ness, H.C.; Abott, M. M.  Introdução à Termodinâmica da Engenharia Química. 7ª ed.  ISBN 978-85-216-1553-8, LTC editora, 2007.
+2)Koretsky, M. D. Termodinâmica para Engenharia Química, 1ª ed.  ISBN 978-85-216-1530-9, LTC editora, 2007.
+3)Terron, L. R. Termodinâmica Química Aplicada. 1ª ed.  ISBN 978-85-204-2082-9, Editora Manole Ltda, 2009.
+4)Moran, M. J.; Shapiro, H. N. Princípios de Termodinâmica para Engenharia - 1ª ed.  ISBN 978-85-216-1689-4, LTC editora, 2009.
+5)Van Wilen, J. Sonntag, Richard. E. Fundamentos da Termodinâmica Clássica  6ª Edição  2004
+6)Sandler, S. I., Chemical and Engineering Thermodynamics, 3rd ed., John Wiley &amp; Sons, 1999</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -478,13 +541,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -603,98 +666,106 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>35</v>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
